--- a/z20_data/score.xlsx
+++ b/z20_data/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>SW특기</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>학년</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -524,6 +529,9 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -564,6 +572,9 @@
           <t>Java</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,6 +615,9 @@
           <t>javascript</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -640,6 +654,9 @@
         <v>80</v>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -676,6 +693,9 @@
         <v>10</v>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -716,6 +736,9 @@
           <t>C</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -756,6 +779,9 @@
           <t>PYTHON</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -795,6 +821,9 @@
         <is>
           <t>c#</t>
         </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
